--- a/lab1.xlsx
+++ b/lab1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git.Local\erp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git.Uni\erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Численность персонала, чел</t>
-  </si>
-  <si>
     <t xml:space="preserve">По каждому показателю построить график и тренды различного вида. </t>
   </si>
   <si>
@@ -37,32 +34,55 @@
   <si>
     <t>По уравнению тренда спрогнозировать значение показателя.</t>
   </si>
+  <si>
+    <t>Численность персонала, чел</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,10 +97,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,7 +163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>диаграмма</a:t>
+              <a:t>Численность персонала</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -171,20 +200,27 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3066017189623211E-2"/>
+          <c:y val="8.67926464373346E-2"/>
+          <c:w val="0.89653018372703408"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>численность персонала</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -195,7 +231,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -205,31 +241,127 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
-            <c:name>Полиномиальная (Степень = 3)</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:trendlineType val="linear"/>
             <c:forward val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6483907749236264E-2"/>
-                  <c:y val="-7.2620681016426769E-2"/>
+                  <c:x val="0.1050975937245421"/>
+                  <c:y val="-4.6122411630887421E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -4,6429x + 69,286</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R²</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t> лин</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 0,9098</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -264,23 +396,72 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:forward val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.8533034292844546E-2"/>
-                  <c:y val="-1.8941333776119274E-2"/>
+                  <c:x val="-1.9061196893700602E-2"/>
+                  <c:y val="-3.8979608640053544E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 72,205e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>-0,093x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R²</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t> эксп</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 0,9016</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -315,7 +496,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -328,10 +509,51 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8035195061745653E-2"/>
-                  <c:y val="8.2856700458035337E-2"/>
+                  <c:x val="-1.0217788972275431E-2"/>
+                  <c:y val="5.4258186419523888E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -14,5ln(x) + 68,368</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R²</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t> лог</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 0,8912</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -366,20 +588,6 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
                   <a:srgbClr val="7030A0"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
@@ -387,15 +595,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:forward val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12744019190224173"/>
-                  <c:y val="-9.0358627480111045E-2"/>
+                  <c:x val="-7.5677501603921379E-2"/>
+                  <c:y val="8.1723941498586972E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -428,48 +636,9 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$7:$H$7</c:f>
+              <c:f>Лист1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -496,35 +665,179 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-85C7-4EF8-8CFB-993442556811}"/>
+              <c16:uniqueId val="{00000000-8540-422E-A15A-A5B9677B575A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Прогноз</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>384.2946664960001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>546.08399975700013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>779.18333300000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8540-422E-A15A-A5B9677B575A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1407264687"/>
-        <c:axId val="1407265519"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1407264687"/>
+        <c:axId val="343941200"/>
+        <c:axId val="344026800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343941200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -533,8 +846,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -561,15 +874,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1407265519"/>
+        <c:crossAx val="344026800"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1407265519"/>
+        <c:axId val="344026800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,8 +905,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -620,9 +936,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1407264687"/>
+        <c:crossAx val="343941200"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -633,31 +949,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3584664927820722E-2"/>
+          <c:y val="9.3419216931015431E-2"/>
+          <c:w val="0.17672643911265112"/>
+          <c:h val="0.42375565136181886"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -688,7 +990,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -765,7 +1067,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -792,8 +1094,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -873,11 +1175,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -888,11 +1185,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -904,7 +1196,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -924,9 +1216,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -939,10 +1228,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -982,22 +1271,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1102,8 +1392,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1235,19 +1525,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1261,6 +1552,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1284,20 +1586,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>790492</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>32965</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>146758</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>470452</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146105</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1578,137 +1880,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K8"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>200</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>205</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>215</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>200</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>230</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>280</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <f>2.083333333*8*8*8-20.595*8*8+59.821*8 + 157.14</f>
+        <v>384.2946664960001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <f>2.083333333*9*9*9-20.595*9*9+59.821*9 + 157.14</f>
+        <v>546.08399975700013</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <f>2.083333333*1000-20.595*100+59.821*10 + 157.14</f>
+        <v>779.18333300000006</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2006</v>
-      </c>
-      <c r="C6">
-        <v>2007</v>
-      </c>
-      <c r="D6">
-        <v>2008</v>
-      </c>
-      <c r="E6">
-        <v>2009</v>
-      </c>
-      <c r="F6">
-        <v>2010</v>
-      </c>
-      <c r="G6">
-        <v>2011</v>
-      </c>
-      <c r="H6">
-        <v>2012</v>
-      </c>
-      <c r="I6">
-        <v>2013</v>
-      </c>
-      <c r="J6">
-        <v>2014</v>
-      </c>
-      <c r="K6">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7">
-        <v>205</v>
-      </c>
-      <c r="D7">
-        <v>215</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-      <c r="F7">
-        <v>195</v>
-      </c>
-      <c r="G7">
-        <v>230</v>
-      </c>
-      <c r="H7">
-        <v>280</v>
-      </c>
-      <c r="I7">
-        <f>2.0833*POWER(I8,3)-20.595*POWER(I8,2)+59.821*I8+157.14</f>
-        <v>384.27760000000001</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:K7" si="0">2.0833*POWER(J8,3)-20.595*POWER(J8,2)+59.821*J8+157.14</f>
-        <v>546.05970000000002</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>779.14999999999975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>